--- a/templates/orgm/mprtmpl.xlsx
+++ b/templates/orgm/mprtmpl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Приложение</t>
   </si>
@@ -137,6 +137,9 @@
     <t>2000-2499</t>
   </si>
   <si>
+    <t>2500 и более</t>
+  </si>
+  <si>
     <t>С началом регулярной родовой деятельности при целом плодном пузыре</t>
   </si>
   <si>
@@ -249,6 +252,9 @@
   </si>
   <si>
     <t>${table:grs.gr34}</t>
+  </si>
+  <si>
+    <t>${table:grs.gr35}</t>
   </si>
 </sst>
 </file>
@@ -347,21 +353,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -373,19 +375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -407,16 +397,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5:T6"/>
+      <selection pane="topLeft" activeCell="AI9" activeCellId="0" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0485829959514"/>
@@ -463,6 +453,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -491,25 +482,25 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="3" t="s">
         <v>9</v>
       </c>
@@ -529,11 +520,12 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -541,29 +533,29 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -575,13 +567,14 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -591,39 +584,39 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="U5" s="3" t="s">
@@ -640,24 +633,27 @@
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -665,255 +661,262 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="R7" s="7" t="n">
+      <c r="R7" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="T7" s="7" t="n">
+      <c r="T7" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="U7" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="V7" s="8" t="n">
+      <c r="V7" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="Y7" s="8" t="n">
+      <c r="Y7" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Z7" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AA7" s="8" t="n">
+      <c r="AA7" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AB7" s="8" t="n">
+      <c r="AB7" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AC7" s="8" t="n">
+      <c r="AC7" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AD7" s="8" t="n">
+      <c r="AD7" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AE7" s="8" t="n">
+      <c r="AE7" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AF7" s="8" t="n">
+      <c r="AF7" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AG7" s="8" t="n">
+      <c r="AG7" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AH7" s="8" t="n">
+      <c r="AH7" s="5" t="n">
         <v>34</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="N8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="O8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="P8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="Q8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="R8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="S8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="T8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="U8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="V8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="W8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="X8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Y8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="Z8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AA8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AB8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AC8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AD8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AE8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AF8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AG8" s="6" t="s">
         <v>77</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A1:AH1"/>
+  <mergeCells count="41">
+    <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
@@ -925,15 +928,15 @@
     <mergeCell ref="U3:X4"/>
     <mergeCell ref="Y3:Y6"/>
     <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AE4"/>
-    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AA3:AF4"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="AF4:AF6"/>
     <mergeCell ref="AG4:AG6"/>
     <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
@@ -953,6 +956,7 @@
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/templates/orgm/mprtmpl.xlsx
+++ b/templates/orgm/mprtmpl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="27735" windowHeight="15075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Приложение</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Перинатальные потери</t>
   </si>
   <si>
+    <t>Число рожденных с весом менее 500г.</t>
+  </si>
+  <si>
     <t>абс.</t>
   </si>
   <si>
@@ -255,53 +258,46 @@
   </si>
   <si>
     <t>${table:grs.gr35}</t>
+  </si>
+  <si>
+    <t>${table:grs.gr36}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,111 +308,491 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="5" builtinId="6"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor indexed="9"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI9" activeCellId="0" sqref="AI9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.246963562753"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.53441295546559"/>
+    <col min="1" max="9" width="8.53333333333333"/>
+    <col min="10" max="10" width="13.05"/>
+    <col min="11" max="11" width="15.8"/>
+    <col min="12" max="12" width="15.25"/>
+    <col min="13" max="13" width="12.125"/>
+    <col min="14" max="1025" width="8.53333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +831,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="46.25" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -466,7 +842,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.9" customHeight="1" spans="1:36">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -526,24 +902,27 @@
       </c>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
+      <c r="AJ3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.9" customHeight="1" spans="1:36">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -569,16 +948,17 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AJ4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="29.85" customHeight="1" spans="1:36">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -588,74 +968,75 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="S5" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="T5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="U5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AA5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AB5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AC5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AD5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AE5" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
+      <c r="AJ5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="143" customHeight="1" spans="1:36">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -665,281 +1046,280 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
+      <c r="AJ6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:36">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="4">
         <v>8</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="4">
         <v>11</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="4">
         <v>12</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="4">
         <v>13</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="4">
         <v>14</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="4">
         <v>15</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="4">
         <v>16</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="4">
         <v>17</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="4">
         <v>18</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="4">
         <v>19</v>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="4">
         <v>20</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="4">
         <v>21</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="4">
         <v>22</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="4">
         <v>23</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="4">
         <v>24</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="4">
         <v>25</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="4">
         <v>26</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="4">
         <v>27</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AB7" s="4">
         <v>28</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="4">
         <v>29</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="4">
         <v>30</v>
       </c>
-      <c r="AE7" s="5" t="n">
+      <c r="AE7" s="4">
         <v>31</v>
       </c>
-      <c r="AF7" s="5" t="n">
+      <c r="AF7" s="4">
         <v>32</v>
       </c>
-      <c r="AG7" s="5" t="n">
+      <c r="AG7" s="4">
         <v>33</v>
       </c>
-      <c r="AH7" s="5" t="n">
+      <c r="AH7" s="4">
         <v>34</v>
       </c>
-      <c r="AI7" s="5" t="n">
+      <c r="AI7" s="8">
         <v>35</v>
       </c>
+      <c r="AJ7" s="9">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:36">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="S8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="T8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="V8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="X8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Y8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="Z8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AA8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AB8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AC8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AD8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AE8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AF8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AG8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AH8" s="10" t="s">
         <v>79</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:T4"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AF4"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
@@ -951,19 +1331,24 @@
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
     <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="N3:T4"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="AA3:AF4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>